--- a/tests/fixtures/dynamic_tests/stop_conditions.xlsx
+++ b/tests/fixtures/dynamic_tests/stop_conditions.xlsx
@@ -9,8 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21500" yWindow="8340" windowWidth="21480" windowHeight="13260" tabRatio="500" firstSheet="2" activeTab="9"/>
-    <workbookView xWindow="1620" yWindow="4080" windowWidth="35880" windowHeight="16800" tabRatio="500" firstSheet="9" activeTab="19"/>
+    <workbookView xWindow="-21500" yWindow="8340" windowWidth="21480" windowHeight="13260" tabRatio="500" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="1620" yWindow="4080" windowWidth="35880" windowHeight="16800" tabRatio="500" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="254">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
   </si>
@@ -802,9 +802,6 @@
     <t>constant_1 == 3</t>
   </si>
   <si>
-    <t>constant_2</t>
-  </si>
-  <si>
     <t>A[c] + B[c]</t>
   </si>
   <si>
@@ -814,9 +811,6 @@
     <t>observable_1</t>
   </si>
   <si>
-    <t xml:space="preserve">constant_2 &gt; observable_1 </t>
-  </si>
-  <si>
     <t>gram</t>
   </si>
   <si>
@@ -829,9 +823,6 @@
     <t>Simulation should end at time 800'</t>
   </si>
   <si>
-    <t>A[c] &lt;= constant_2</t>
-  </si>
-  <si>
     <t>0.6 &lt; function_1 &lt;= 10</t>
   </si>
   <si>
@@ -845,6 +836,18 @@
   </si>
   <si>
     <t>Dynamic_stop_conditions</t>
+  </si>
+  <si>
+    <t>Species A[c] copy number threshold</t>
+  </si>
+  <si>
+    <t>pop_A_c_threshold</t>
+  </si>
+  <si>
+    <t>A[c] &lt;= pop_A_c_threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop_A_c_threshold &gt; observable_1 </t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1150,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1169,22 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1806,13 +1809,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L802"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A802" sqref="A802:A803"/>
     </sheetView>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A3:A12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
+      <pane ySplit="2" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A803" sqref="A803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1838,7 +1841,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="60" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="51" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>199</v>
       </c>
@@ -16461,7 +16464,7 @@
         <v>868</v>
       </c>
       <c r="D771">
-        <f t="shared" ref="D771:D803" si="25">initial_pop_a - k_cat_1_for*$A771</f>
+        <f t="shared" ref="D771:D802" si="25">initial_pop_a - k_cat_1_for*$A771</f>
         <v>132</v>
       </c>
       <c r="E771">
@@ -17187,7 +17190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -17218,16 +17221,16 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>98</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17309,7 +17312,7 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45" t="s">
@@ -17369,11 +17372,11 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -19787,8 +19790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="S1" sqref="S1:S1048576"/>
@@ -19799,7 +19802,7 @@
     <col min="1" max="1" width="20.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" style="16" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="56" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="47" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="16" hidden="1" customWidth="1"/>
@@ -19815,7 +19818,7 @@
       <c r="A1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="56"/>
+      <c r="D1" s="47"/>
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.2">
@@ -19828,7 +19831,7 @@
       <c r="C2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -19860,7 +19863,7 @@
       <c r="B3" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="47">
         <v>0.3</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -19875,7 +19878,7 @@
       <c r="C4" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="50">
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -19886,7 +19889,7 @@
       <c r="A5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="48">
         <v>6.0221408570000002E+23</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -19900,7 +19903,7 @@
       <c r="A6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="50">
         <v>1100</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -19914,7 +19917,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
-      <c r="D7" s="59">
+      <c r="D7" s="50">
         <v>2</v>
       </c>
       <c r="E7" s="45"/>
@@ -19928,12 +19931,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="45"/>
+        <v>251</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>250</v>
+      </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="59">
-        <v>100</v>
+      <c r="D8" s="50">
+        <v>100.5</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45" t="s">
@@ -19946,18 +19951,18 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
-      <c r="D9" s="57">
+      <c r="D9" s="48">
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="E9" s="45">
         <v>0</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -19970,7 +19975,7 @@
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="59">
+      <c r="D10" s="50">
         <v>900</v>
       </c>
       <c r="E10" s="45"/>
@@ -19978,7 +19983,7 @@
         <v>41</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19987,7 +19992,7 @@
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="59">
+      <c r="D11" s="50">
         <v>1</v>
       </c>
       <c r="E11" s="45"/>
@@ -20030,7 +20035,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -20038,7 +20043,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -20127,8 +20132,8 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20215,13 +20220,13 @@
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20229,8 +20234,8 @@
         <v>231</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="55" t="s">
-        <v>242</v>
+      <c r="C6" s="46" t="s">
+        <v>253</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>83</v>
@@ -20245,7 +20250,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>83</v>
@@ -20260,7 +20265,7 @@
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>83</v>
@@ -20298,26 +20303,26 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="Q2" s="54" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="Q2" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="54" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="T2" s="51"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -20483,10 +20488,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -21074,19 +21079,19 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -23272,14 +23277,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
